--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3710.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3710.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.285244648564924</v>
+        <v>1.286474823951721</v>
       </c>
       <c r="B1">
-        <v>2.47090972340167</v>
+        <v>2.763383150100708</v>
       </c>
       <c r="C1">
-        <v>6.767495165927442</v>
+        <v>4.658699512481689</v>
       </c>
       <c r="D1">
-        <v>2.297593134235992</v>
+        <v>2.023508071899414</v>
       </c>
       <c r="E1">
-        <v>1.088719643845197</v>
+        <v>1.263125658035278</v>
       </c>
     </row>
   </sheetData>
